--- a/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03594486171035386</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04274914824168074</v>
+        <v>0.04274914824168073</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01945054872711426</v>
@@ -697,7 +697,7 @@
         <v>0.03153722506715935</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03757477792148732</v>
+        <v>0.03757477792148731</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008706396788150458</v>
+        <v>0.009563570066223399</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01144730497771907</v>
+        <v>0.01232987286836707</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01663634608990654</v>
+        <v>0.01591900749680792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01966764755927353</v>
+        <v>0.0199363803954016</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01241417813825601</v>
+        <v>0.01294711188231197</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03191330376193219</v>
+        <v>0.03054724751728611</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02319790854616999</v>
+        <v>0.02294246633186766</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02951813955107509</v>
+        <v>0.03055045601126368</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01266276454007809</v>
+        <v>0.01289553094686767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02397034906435469</v>
+        <v>0.0250438810465609</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02220409119079327</v>
+        <v>0.02301728746519757</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02852559602983535</v>
+        <v>0.0287763536824503</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02898788660980442</v>
+        <v>0.0292833721186578</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03514775547162419</v>
+        <v>0.03354323582252049</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04092120266625624</v>
+        <v>0.04204979112130877</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05193483606323421</v>
+        <v>0.0513749832146294</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03526424981538816</v>
+        <v>0.03453613499257443</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06113109261375255</v>
+        <v>0.06278662560039802</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05276293115805772</v>
+        <v>0.05284790118243785</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06009242650187013</v>
+        <v>0.05946529182859253</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0275951529060223</v>
+        <v>0.02736731337167777</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04442969251767485</v>
+        <v>0.04359923173651277</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04177958083827659</v>
+        <v>0.04294097274484092</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04987274412869329</v>
+        <v>0.04962183684634286</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02814489165372545</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03136241930790913</v>
+        <v>0.03136241930790912</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0371365045165078</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01446140897893579</v>
+        <v>0.01509207519518189</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02496134199764332</v>
+        <v>0.02509009466123763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01873930595281246</v>
+        <v>0.01930805226759045</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01998938581498015</v>
+        <v>0.02081217298373273</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02636175150058117</v>
+        <v>0.02671074089679646</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04345706444637838</v>
+        <v>0.04527638101778318</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04593861935207213</v>
+        <v>0.04445235593296436</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02892736617710338</v>
+        <v>0.02815284267633266</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02351381856220892</v>
+        <v>0.02316909675953569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03768470258251676</v>
+        <v>0.03867786460755505</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03564992733382299</v>
+        <v>0.03455142548079371</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02700799286798432</v>
+        <v>0.02765626415287646</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03719922142188445</v>
+        <v>0.03711400593432777</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05011176675454952</v>
+        <v>0.050099365906058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04049380034963974</v>
+        <v>0.04045177996175726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04645858397205669</v>
+        <v>0.04634442532257332</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05145964822501152</v>
+        <v>0.05205485090975217</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07267048934038015</v>
+        <v>0.07501249554282587</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07605556673111992</v>
+        <v>0.07360412793481752</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05090575280475453</v>
+        <v>0.0498277808604368</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04018503607873516</v>
+        <v>0.03941292474590491</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05731797542153687</v>
+        <v>0.05779141971624868</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05391264431367549</v>
+        <v>0.05448453676019613</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04467339518917562</v>
+        <v>0.0445025449325754</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.06875618278679051</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06028033161707412</v>
+        <v>0.0602803316170741</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03251451783172874</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01127655594272268</v>
+        <v>0.01302366788108299</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02598718664257936</v>
+        <v>0.02771336054669488</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01941887988811075</v>
+        <v>0.02011822623216979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02835477333779654</v>
+        <v>0.0285999765645837</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02943726260139941</v>
+        <v>0.02975688092322755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03973244909872965</v>
+        <v>0.04051222756036149</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05188123745213802</v>
+        <v>0.05181160755014761</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04520517487368719</v>
+        <v>0.04628257380279583</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02348328801285097</v>
+        <v>0.02429978747073485</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03732868286100874</v>
+        <v>0.0376957604437044</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03961236024866818</v>
+        <v>0.03925943461684373</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04108644762103568</v>
+        <v>0.04117334570199889</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03606702979545316</v>
+        <v>0.03792236298148264</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0588942337162995</v>
+        <v>0.05980112454618054</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04522357482545328</v>
+        <v>0.04551069626919373</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06098063328485186</v>
+        <v>0.06049990720337934</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06066367076001289</v>
+        <v>0.06089397248755762</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07505028991374428</v>
+        <v>0.07571332071663811</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08776383468735743</v>
+        <v>0.08904496617000748</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07689996772110962</v>
+        <v>0.07584292400401337</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04301329516173483</v>
+        <v>0.04451792192703678</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06141616956031096</v>
+        <v>0.06122890169379195</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06266983171850152</v>
+        <v>0.0620009004112216</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06355762115157589</v>
+        <v>0.06375093395545532</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03629963896460695</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03063137701706971</v>
+        <v>0.0306313770170697</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04994752898338638</v>
@@ -1093,7 +1093,7 @@
         <v>0.04898193344299641</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05750120261065044</v>
+        <v>0.05750120261065045</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0403934578445256</v>
@@ -1105,7 +1105,7 @@
         <v>0.04298070967625719</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04487584601664463</v>
+        <v>0.04487584601664464</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02014326168408133</v>
+        <v>0.01986610050516995</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02442265876191907</v>
+        <v>0.02535769422171544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0255147933305364</v>
+        <v>0.02574680508820528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02125354341674463</v>
+        <v>0.02042411535930232</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03779679799742771</v>
+        <v>0.03782886791216367</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04424533042841298</v>
+        <v>0.04530372657373593</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03665154454934581</v>
+        <v>0.03584283261458811</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04615008609286964</v>
+        <v>0.0460310537033068</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03170976880692362</v>
+        <v>0.03309129176590792</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03862213330179431</v>
+        <v>0.03859940667452938</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03462378037153378</v>
+        <v>0.03385753522169462</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03676633848191006</v>
+        <v>0.03676259864766627</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04179785767651691</v>
+        <v>0.0435457049176243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0492806737902495</v>
+        <v>0.05139537382368321</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05046956395139396</v>
+        <v>0.05190927670055612</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04504227698305888</v>
+        <v>0.04497755517225589</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06576455032213568</v>
+        <v>0.0649670757476906</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07364566665525696</v>
+        <v>0.07553369931221629</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06495416112979935</v>
+        <v>0.06390172096013101</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07244018320411037</v>
+        <v>0.07202558586806276</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04936536506845708</v>
+        <v>0.05178265512374541</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05939980079007933</v>
+        <v>0.05816533566549523</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05275334753208313</v>
+        <v>0.05281749361990107</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05311017986928827</v>
+        <v>0.05400171815797409</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.05373387652741457</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04954607024680572</v>
+        <v>0.04954607024680571</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03163006843644426</v>
@@ -1241,7 +1241,7 @@
         <v>0.04247045375638014</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04191680066327556</v>
+        <v>0.04191680066327554</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01924956398251143</v>
+        <v>0.01905542058184682</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02813799329757886</v>
+        <v>0.02781777421199067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02481124538428898</v>
+        <v>0.02506791274463798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02801930357341013</v>
+        <v>0.02703027695473402</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03283994364509102</v>
+        <v>0.03286401063679439</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04740421220118578</v>
+        <v>0.04749112643941718</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04591847582898394</v>
+        <v>0.04580408396035201</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04308013915328687</v>
+        <v>0.04368376964118601</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02752913238249925</v>
+        <v>0.02738666494807595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04014037183572045</v>
+        <v>0.04015868134700201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03801244302072264</v>
+        <v>0.03793017424983461</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03782953707286549</v>
+        <v>0.03737852078602323</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0308453166015012</v>
+        <v>0.03077756683363266</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04121948373553914</v>
+        <v>0.0413500679282507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03706484341042916</v>
+        <v>0.03734250786109318</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04172560681908181</v>
+        <v>0.04079472344240208</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04652445278689873</v>
+        <v>0.04599224909638291</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06299285560891164</v>
+        <v>0.06336522428992422</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06222682901993164</v>
+        <v>0.0616530115384867</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05703317707523096</v>
+        <v>0.05732824562701815</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03621949897416051</v>
+        <v>0.03649390115597236</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.050962837181286</v>
+        <v>0.05058949736521117</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04823877682643521</v>
+        <v>0.04754727723954714</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04726487524140766</v>
+        <v>0.04630644428156344</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6033</v>
+        <v>6627</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8022</v>
+        <v>8640</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11226</v>
+        <v>10742</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13575</v>
+        <v>13760</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8545</v>
+        <v>8912</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22127</v>
+        <v>21180</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15608</v>
+        <v>15437</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21630</v>
+        <v>22387</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17492</v>
+        <v>17813</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>33417</v>
+        <v>34914</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29923</v>
+        <v>31019</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>40592</v>
+        <v>40949</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20088</v>
+        <v>20293</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24630</v>
+        <v>23506</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27614</v>
+        <v>28375</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35846</v>
+        <v>35460</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24274</v>
+        <v>23773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42385</v>
+        <v>43533</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>35501</v>
+        <v>35558</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>44035</v>
+        <v>43575</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>38118</v>
+        <v>37804</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>61940</v>
+        <v>60782</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>56304</v>
+        <v>57869</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>70969</v>
+        <v>70612</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13909</v>
+        <v>14516</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25409</v>
+        <v>25540</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19160</v>
+        <v>19741</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20967</v>
+        <v>21830</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>25529</v>
+        <v>25866</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>44617</v>
+        <v>46485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47910</v>
+        <v>46360</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30977</v>
+        <v>30147</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>45386</v>
+        <v>44721</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>77051</v>
+        <v>79082</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>73629</v>
+        <v>71361</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>57250</v>
+        <v>58625</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35778</v>
+        <v>35696</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>51011</v>
+        <v>50998</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41402</v>
+        <v>41359</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>48731</v>
+        <v>48611</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>49833</v>
+        <v>50410</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>74610</v>
+        <v>77014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>79319</v>
+        <v>76763</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>54512</v>
+        <v>53357</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>77565</v>
+        <v>76075</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>117194</v>
+        <v>118162</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>111348</v>
+        <v>112529</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>94697</v>
+        <v>94334</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7651</v>
+        <v>8837</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19660</v>
+        <v>20966</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14750</v>
+        <v>15281</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22743</v>
+        <v>22940</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20130</v>
+        <v>20349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30844</v>
+        <v>31449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40727</v>
+        <v>40673</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>36691</v>
+        <v>37566</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>31992</v>
+        <v>33105</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>57218</v>
+        <v>57781</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>61184</v>
+        <v>60639</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>66303</v>
+        <v>66443</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24472</v>
+        <v>25731</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>44556</v>
+        <v>45242</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34350</v>
+        <v>34568</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48912</v>
+        <v>48526</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>41484</v>
+        <v>41642</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>58260</v>
+        <v>58775</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>68896</v>
+        <v>69901</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62417</v>
+        <v>61559</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>58599</v>
+        <v>60649</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>94140</v>
+        <v>93853</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>96798</v>
+        <v>95764</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>102566</v>
+        <v>102878</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18979</v>
+        <v>18718</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23054</v>
+        <v>23936</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23922</v>
+        <v>24139</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21042</v>
+        <v>20221</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>39256</v>
+        <v>39290</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>46403</v>
+        <v>47513</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38256</v>
+        <v>37412</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>51551</v>
+        <v>51418</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>62812</v>
+        <v>65548</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>76962</v>
+        <v>76917</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>68602</v>
+        <v>67083</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>77470</v>
+        <v>77462</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39383</v>
+        <v>41030</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>46518</v>
+        <v>48514</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47319</v>
+        <v>48668</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44595</v>
+        <v>44531</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>68304</v>
+        <v>67476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>77237</v>
+        <v>79217</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>67798</v>
+        <v>66699</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>80918</v>
+        <v>80455</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>97785</v>
+        <v>102573</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>118366</v>
+        <v>115906</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>104523</v>
+        <v>104650</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>111908</v>
+        <v>113787</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>63052</v>
+        <v>62417</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>96209</v>
+        <v>95114</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>84218</v>
+        <v>85089</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>98944</v>
+        <v>95451</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>110973</v>
+        <v>111054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>168052</v>
+        <v>168360</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>162760</v>
+        <v>162354</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>160789</v>
+        <v>163042</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>183199</v>
+        <v>182251</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>279549</v>
+        <v>279676</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>263764</v>
+        <v>263193</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>274778</v>
+        <v>271502</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>101035</v>
+        <v>100813</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>140937</v>
+        <v>141384</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>125811</v>
+        <v>126754</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>147345</v>
+        <v>144058</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>157215</v>
+        <v>155417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>223315</v>
+        <v>224635</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>220566</v>
+        <v>218532</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>212866</v>
+        <v>213967</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>241031</v>
+        <v>242857</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>354919</v>
+        <v>352319</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>334724</v>
+        <v>329925</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>343313</v>
+        <v>336351</v>
       </c>
     </row>
     <row r="24">
